--- a/Document/DB設計.xlsx
+++ b/Document/DB設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\博昭\Desktop\203.勤怠自動作成アプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AttendanceManagement\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,25 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>漢字フルネーム表記　(例　「滝本博昭」　)</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タキモト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒロアキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>就業開始時に1レコードが自動作成</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -343,10 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤務開始</t>
     <rPh sb="0" eb="2">
       <t>キンム</t>
@@ -421,34 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(2015年6月2日　9:11に開始実行　18:05に終了を実行した場合)</t>
-    <rPh sb="5" eb="6">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号・社員名・管理者権限の有無を管理</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -521,28 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各社員のパス 半角英数15バイト 管理者により作成</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エイスウ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR(30)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,14 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SMALLINT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -638,10 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>attendance_management</t>
   </si>
   <si>
@@ -675,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システムクロックより年月日を取得し、挿入　例、2015-6-2</t>
     <rPh sb="10" eb="11">
       <t>ネン</t>
@@ -697,6 +608,98 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2015年6月2日　9:11に開始、18:05に終了を実行した場合)</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT　自動で生成</t>
+    <rPh sb="15" eb="17">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各社員のパス 半角英数15バイト以内 管理者作成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字フルネーム　(例　「滝本博昭」　)　管理者作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タキモト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒロアキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -755,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +771,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -1237,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,95 +1268,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1358,53 +1382,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1443,6 +1473,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFECF4FA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2479,7 +2514,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2495,10 +2530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2512,135 +2547,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>70</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="2"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2649,476 +2674,490 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="2"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D24" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F24" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="42" t="s">
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="42" t="s">
+      <c r="D29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="B31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="48"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="42" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="55"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F13:J13"/>
     <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F13:J13"/>
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="F25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Document/DB設計.xlsx
+++ b/Document/DB設計.xlsx
@@ -470,10 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者M 社員E　両001から以降+1　管理者作成</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -701,6 +697,10 @@
     <rPh sb="14" eb="16">
       <t>ヒロアキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1337,61 +1337,88 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,38 +1430,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2547,18 +2547,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>41</v>
@@ -2637,15 +2637,15 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2653,11 +2653,11 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2701,18 +2701,18 @@
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -2722,19 +2722,19 @@
         <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -2744,19 +2744,19 @@
         <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="F14" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2769,16 +2769,16 @@
         <v>46</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="F15" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -2807,7 +2807,7 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2823,11 +2823,11 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -2839,15 +2839,15 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2855,13 +2855,13 @@
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2887,60 +2887,60 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="60" t="s">
+      <c r="D24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
+      <c r="F25" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -2950,63 +2950,63 @@
         <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -3016,19 +3016,19 @@
         <v>19</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -3038,39 +3038,39 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="48"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
@@ -3080,17 +3080,17 @@
         <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="48"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
@@ -3100,41 +3100,53 @@
         <v>23</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -3146,18 +3158,6 @@
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="F26:J26"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
